--- a/results/benchmark_report_QuantTrio_Qwen3-Coder-30B-A3B-Instruct-AWQ.xlsx
+++ b/results/benchmark_report_QuantTrio_Qwen3-Coder-30B-A3B-Instruct-AWQ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,13 +516,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4752.34</v>
+        <v>4556.7</v>
       </c>
       <c r="C5" t="n">
         <v>0.78</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0455915752380231</v>
+        <v>0.04754903036554232</v>
       </c>
     </row>
     <row r="6">
@@ -532,13 +532,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8052.43</v>
+        <v>8411.16</v>
       </c>
       <c r="C6" t="n">
         <v>1.3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04484498606148841</v>
+        <v>0.04293237925697658</v>
       </c>
     </row>
     <row r="7">
@@ -548,29 +548,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8998.370000000001</v>
+        <v>8902.5</v>
       </c>
       <c r="C7" t="n">
         <v>1.56</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04815686989236198</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4x5090</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8460.450000000001</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.08536451633450019</v>
+        <v>0.04867546569315735</v>
       </c>
     </row>
   </sheetData>

--- a/results/benchmark_report_QuantTrio_Qwen3-Coder-30B-A3B-Instruct-AWQ.xlsx
+++ b/results/benchmark_report_QuantTrio_Qwen3-Coder-30B-A3B-Instruct-AWQ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,6 +557,22 @@
         <v>0.04867546569315735</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4x5090</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9790.98</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.07376403814758301</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/benchmark_report_QuantTrio_Qwen3-Coder-30B-A3B-Instruct-AWQ.xlsx
+++ b/results/benchmark_report_QuantTrio_Qwen3-Coder-30B-A3B-Instruct-AWQ.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9790.98</v>
+        <v>12743.99</v>
       </c>
       <c r="C8" t="n">
         <v>2.6</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07376403814758301</v>
+        <v>0.05667159360782786</v>
       </c>
     </row>
   </sheetData>

--- a/results/benchmark_report_QuantTrio_Qwen3-Coder-30B-A3B-Instruct-AWQ.xlsx
+++ b/results/benchmark_report_QuantTrio_Qwen3-Coder-30B-A3B-Instruct-AWQ.xlsx
@@ -516,13 +516,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4556.7</v>
+        <v>4744.94</v>
       </c>
       <c r="C5" t="n">
         <v>0.78</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04754903036554232</v>
+        <v>0.04566267785613025</v>
       </c>
     </row>
     <row r="6">
